--- a/Database.xlsx
+++ b/Database.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="159">
   <si>
     <t>Purchase Indent/Requisition</t>
   </si>
@@ -286,9 +286,6 @@
     <t>DesigID (Primary Key &amp; Foreign Key)</t>
   </si>
   <si>
-    <t>EmpCode (Auto generated)</t>
-  </si>
-  <si>
     <t>Department Master</t>
   </si>
   <si>
@@ -353,6 +350,159 @@
   </si>
   <si>
     <t>Emp Bank Details Master</t>
+  </si>
+  <si>
+    <t>Supplier Master</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Supplier Mobile No. 1 (mandatory unique)</t>
+  </si>
+  <si>
+    <t>Supplier Mobile No. 2 (unique)</t>
+  </si>
+  <si>
+    <t>Supplier Email ID 1 (mandatory unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Supplier Email ID 2 (unique)</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Credit Limit</t>
+  </si>
+  <si>
+    <t>GST NO (Unique)</t>
+  </si>
+  <si>
+    <t>PAN NO (Unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Supplier ID</t>
+  </si>
+  <si>
+    <t>EmpSerialNumber (Auto generated)</t>
+  </si>
+  <si>
+    <t>SupplierSerialNumber (Auto generated)</t>
+  </si>
+  <si>
+    <t>Contact Person Mobile Number 1</t>
+  </si>
+  <si>
+    <t>Contact Person EmailID</t>
+  </si>
+  <si>
+    <t>Customer Master</t>
+  </si>
+  <si>
+    <t>CustomerSerialNumber (Auto generated)</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Mobile No. 1 (mandatory unique)</t>
+  </si>
+  <si>
+    <t>Customer Mobile No. 2 (unique)</t>
+  </si>
+  <si>
+    <t>Customer Email ID 1 (mandatory unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Customer Email ID 2 (unique)</t>
+  </si>
+  <si>
+    <t>Supplier Category</t>
+  </si>
+  <si>
+    <t>Customer Category</t>
+  </si>
+  <si>
+    <t>Supplier/Customer Bank Details</t>
+  </si>
+  <si>
+    <t>Supplier/CustomerID</t>
+  </si>
+  <si>
+    <t>RTGS Number (Unique)</t>
+  </si>
+  <si>
+    <t>NEFT Number (Unique)</t>
+  </si>
+  <si>
+    <t>Bank Account No. (Unique)</t>
+  </si>
+  <si>
+    <t>Product Master</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductSerialNumber</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Alias</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Product Category ID</t>
+  </si>
+  <si>
+    <t>Product Category Name</t>
+  </si>
+  <si>
+    <t>Product Image</t>
+  </si>
+  <si>
+    <t>Emp/AdminID (Hidden)</t>
+  </si>
+  <si>
+    <t>Office No.</t>
+  </si>
+  <si>
+    <t>Building Name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>UOM Master</t>
+  </si>
+  <si>
+    <t>UOM ID</t>
+  </si>
+  <si>
+    <t>UOM Name</t>
+  </si>
+  <si>
+    <t>Bank Name Master</t>
+  </si>
+  <si>
+    <t>Bank ID</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
   </si>
 </sst>
 </file>
@@ -1343,72 +1493,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="2" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -1416,116 +1620,337 @@
       <c r="D5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\CRM ERP PROJECT\CRM ERP PROJECT\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TYIT\CRM ERP PROJECT\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
   <si>
     <t>Purchase Indent/Requisition</t>
   </si>
@@ -244,27 +244,6 @@
     <t>EmpID (Primary Key)</t>
   </si>
   <si>
-    <t>Emp Middle Name</t>
-  </si>
-  <si>
-    <t>Emp Last Name</t>
-  </si>
-  <si>
-    <t>Emp Mobile No. 1 (mandatory unique)</t>
-  </si>
-  <si>
-    <t>Emp Mobile No. 2 (unique)</t>
-  </si>
-  <si>
-    <t>Emp Email ID 2 (unique)</t>
-  </si>
-  <si>
-    <t>Designation (ID)</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
-  </si>
-  <si>
     <t>City (ID)</t>
   </si>
   <si>
@@ -277,45 +256,15 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Designation Master</t>
-  </si>
-  <si>
-    <t>Designation Name</t>
-  </si>
-  <si>
     <t>DesigID (Primary Key &amp; Foreign Key)</t>
   </si>
   <si>
-    <t>Department Master</t>
-  </si>
-  <si>
-    <t>Employee Master</t>
-  </si>
-  <si>
     <t>DeptID (Primary Key &amp; Foreign Key)</t>
   </si>
   <si>
-    <t xml:space="preserve">Department Name </t>
-  </si>
-  <si>
-    <t>Department 1 (ID) (Mandatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department 2 (ID) </t>
-  </si>
-  <si>
-    <t>Address Line 1 (mandatory)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pincode (Unique &amp; Mandatory) </t>
   </si>
   <si>
-    <t>Emp First Name (mandatory)</t>
-  </si>
-  <si>
-    <t>DOB (mandatory)</t>
-  </si>
-  <si>
     <t>BankID</t>
   </si>
   <si>
@@ -337,99 +286,15 @@
     <t>Cheque Photo</t>
   </si>
   <si>
-    <t>PAN No. (Unique) (online verification)</t>
-  </si>
-  <si>
-    <t>Aadhar No. (Unique &amp; Mandatory) (online verification)</t>
-  </si>
-  <si>
-    <t>Emp Email ID 1 (mandatory unique) (online verification)</t>
-  </si>
-  <si>
     <t>Account Type</t>
   </si>
   <si>
     <t>Emp Bank Details Master</t>
   </si>
   <si>
-    <t>Supplier Master</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
-    <t>Contact Person</t>
-  </si>
-  <si>
-    <t>Supplier Mobile No. 1 (mandatory unique)</t>
-  </si>
-  <si>
-    <t>Supplier Mobile No. 2 (unique)</t>
-  </si>
-  <si>
-    <t>Supplier Email ID 1 (mandatory unique) (online verification)</t>
-  </si>
-  <si>
-    <t>Supplier Email ID 2 (unique)</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>Credit Limit</t>
-  </si>
-  <si>
-    <t>GST NO (Unique)</t>
-  </si>
-  <si>
-    <t>PAN NO (Unique) (online verification)</t>
-  </si>
-  <si>
-    <t>Supplier ID</t>
-  </si>
-  <si>
-    <t>EmpSerialNumber (Auto generated)</t>
-  </si>
-  <si>
-    <t>SupplierSerialNumber (Auto generated)</t>
-  </si>
-  <si>
-    <t>Contact Person Mobile Number 1</t>
-  </si>
-  <si>
-    <t>Contact Person EmailID</t>
-  </si>
-  <si>
-    <t>Customer Master</t>
-  </si>
-  <si>
-    <t>CustomerSerialNumber (Auto generated)</t>
-  </si>
-  <si>
-    <t>Customer ID</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Customer Mobile No. 1 (mandatory unique)</t>
-  </si>
-  <si>
-    <t>Customer Mobile No. 2 (unique)</t>
-  </si>
-  <si>
-    <t>Customer Email ID 1 (mandatory unique) (online verification)</t>
-  </si>
-  <si>
-    <t>Customer Email ID 2 (unique)</t>
-  </si>
-  <si>
-    <t>Supplier Category</t>
-  </si>
-  <si>
-    <t>Customer Category</t>
-  </si>
-  <si>
     <t>Supplier/Customer Bank Details</t>
   </si>
   <si>
@@ -439,51 +304,21 @@
     <t>RTGS Number (Unique)</t>
   </si>
   <si>
-    <t>NEFT Number (Unique)</t>
-  </si>
-  <si>
     <t>Bank Account No. (Unique)</t>
   </si>
   <si>
-    <t>Product Master</t>
-  </si>
-  <si>
     <t>ProductID</t>
   </si>
   <si>
-    <t>ProductSerialNumber</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product Alias</t>
-  </si>
-  <si>
     <t>UOM</t>
   </si>
   <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>Product Category ID</t>
-  </si>
-  <si>
-    <t>Product Category Name</t>
-  </si>
-  <si>
     <t>Product Image</t>
   </si>
   <si>
     <t>Emp/AdminID (Hidden)</t>
   </si>
   <si>
-    <t>Office No.</t>
-  </si>
-  <si>
-    <t>Building Name</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
@@ -503,6 +338,198 @@
   </si>
   <si>
     <t>Bank Name</t>
+  </si>
+  <si>
+    <t>EmpMaster</t>
+  </si>
+  <si>
+    <t>EmpFName (mandatory)</t>
+  </si>
+  <si>
+    <t>EmpMName</t>
+  </si>
+  <si>
+    <t>EmpLName</t>
+  </si>
+  <si>
+    <t>EmpDOB (mandatory)</t>
+  </si>
+  <si>
+    <t>Aadhar_No (Unique &amp; Mandatory) (online verification)</t>
+  </si>
+  <si>
+    <t>PAN_No(Unique) (online verification)</t>
+  </si>
+  <si>
+    <t>EmpMobile1 (mandatory unique)</t>
+  </si>
+  <si>
+    <t>EmpMobile2 (unique)</t>
+  </si>
+  <si>
+    <t>EmpEmailID1 (mandatory unique) (online verification)</t>
+  </si>
+  <si>
+    <t>EmpEmailID1 (unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Address1 (mandatory)</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>EmpDesigID</t>
+  </si>
+  <si>
+    <t>EmpDeptID2</t>
+  </si>
+  <si>
+    <t>EmpDeptID1 (Mandatory)</t>
+  </si>
+  <si>
+    <t>EntryID</t>
+  </si>
+  <si>
+    <t>DeptMaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeptName </t>
+  </si>
+  <si>
+    <t>DesigMaster</t>
+  </si>
+  <si>
+    <t>DesigName</t>
+  </si>
+  <si>
+    <t>SuppMaster</t>
+  </si>
+  <si>
+    <t>SuppID</t>
+  </si>
+  <si>
+    <t>SuppName</t>
+  </si>
+  <si>
+    <t>SuppCategory</t>
+  </si>
+  <si>
+    <t>SuppMobile1 (mandatory unique)</t>
+  </si>
+  <si>
+    <t>SuppMobile2 (unique)</t>
+  </si>
+  <si>
+    <t>SuppEmail1 (mandatory unique) (online verification)</t>
+  </si>
+  <si>
+    <t>SuppEmail2 (unique) (online verification)</t>
+  </si>
+  <si>
+    <t>OfficeNo</t>
+  </si>
+  <si>
+    <t>BuildingName</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>ContactPersonName</t>
+  </si>
+  <si>
+    <t>ContactPersonMobileNo</t>
+  </si>
+  <si>
+    <t>ContactPersonEmailID</t>
+  </si>
+  <si>
+    <t>Supp_PAN_No (Unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Supp_GST_No (Unique)</t>
+  </si>
+  <si>
+    <t>EntryID (Hidden)</t>
+  </si>
+  <si>
+    <t>CustID</t>
+  </si>
+  <si>
+    <t>CustName</t>
+  </si>
+  <si>
+    <t>CustCategory</t>
+  </si>
+  <si>
+    <t>CustMobile1 (mandatory unique)</t>
+  </si>
+  <si>
+    <t>CustMobile2 (unique)</t>
+  </si>
+  <si>
+    <t>CustEmail1 (mandatory unique) (online verification)</t>
+  </si>
+  <si>
+    <t>CustEmail2 (unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Cust_PAN_No (Unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Cust_GST_No (Unique)</t>
+  </si>
+  <si>
+    <t>CustMaster</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ProductAlias</t>
+  </si>
+  <si>
+    <t>ProductCategoryID</t>
+  </si>
+  <si>
+    <t>ProductCategoryName</t>
+  </si>
+  <si>
+    <t>ProductLength</t>
+  </si>
+  <si>
+    <t>ProductHeight</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>ProductMaster</t>
+  </si>
+  <si>
+    <t>ProductCategoryMaster</t>
+  </si>
+  <si>
+    <t>BrokerMaster</t>
+  </si>
+  <si>
+    <t>BrokerID</t>
+  </si>
+  <si>
+    <t>BrokerName</t>
+  </si>
+  <si>
+    <t>BrokerMobile1 (mandatory unique)</t>
+  </si>
+  <si>
+    <t>Broker_GST_No (Unique)</t>
+  </si>
+  <si>
+    <t>BrokerEmail1 (mandatory unique) (online verification)</t>
+  </si>
+  <si>
+    <t>Broker_PAN_No (Unique)</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,453 +1532,505 @@
     <col min="2" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="8" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
